--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
@@ -49,25 +49,25 @@
     <t>DeepAR</t>
   </si>
   <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>MCPS</t>
   </si>
   <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
     <t>Block Bootstrapping</t>
   </si>
   <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>AREPD</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5443559566891729</v>
+        <v>0.5470265175823418</v>
       </c>
       <c r="C2">
-        <v>0.4810368176801414</v>
+        <v>0.4861756330776689</v>
       </c>
       <c r="D2">
-        <v>0.2728468528410372</v>
+        <v>0.2732226965175135</v>
       </c>
       <c r="E2">
-        <v>0.5012287446995508</v>
+        <v>0.4994688332936005</v>
       </c>
       <c r="F2">
-        <v>0.2082366093486816</v>
+        <v>0.2101067087955541</v>
       </c>
       <c r="G2">
-        <v>1.379534342485208</v>
+        <v>1.315350889645995</v>
       </c>
       <c r="H2">
-        <v>0.3213469107633732</v>
+        <v>0.3314523164076807</v>
       </c>
       <c r="I2">
-        <v>0.6833542514703558</v>
+        <v>0.8145554800378642</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.5863127492277844</v>
+        <v>0.5765090202033768</v>
       </c>
       <c r="C3">
-        <v>0.5129566935913612</v>
+        <v>0.5216077719915699</v>
       </c>
       <c r="D3">
-        <v>0.3300548064146416</v>
+        <v>0.3024137754713098</v>
       </c>
       <c r="E3">
-        <v>0.5629330197055195</v>
+        <v>0.5245603535650255</v>
       </c>
       <c r="F3">
-        <v>0.2202050873342533</v>
+        <v>0.2173886813307888</v>
       </c>
       <c r="G3">
-        <v>2.905423955099785</v>
+        <v>2.502614203547371</v>
       </c>
       <c r="H3">
-        <v>0.3648254892085703</v>
+        <v>0.3599775787547947</v>
       </c>
       <c r="I3">
-        <v>0.906675464168231</v>
+        <v>0.8869061863582415</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.6855824995996065</v>
+        <v>0.7101060143950403</v>
       </c>
       <c r="C4">
-        <v>0.6019842488720967</v>
+        <v>0.5999409463042629</v>
       </c>
       <c r="D4">
-        <v>0.3576936845291786</v>
+        <v>0.4143501660478791</v>
       </c>
       <c r="E4">
-        <v>0.5217368948858506</v>
+        <v>0.5835046565559312</v>
       </c>
       <c r="F4">
-        <v>0.2394354492550288</v>
+        <v>0.2220708960072707</v>
       </c>
       <c r="G4">
-        <v>1.907778320972951</v>
+        <v>3.674401273383164</v>
       </c>
       <c r="H4">
-        <v>0.3989806779903805</v>
+        <v>0.4136779684056543</v>
       </c>
       <c r="I4">
-        <v>0.9854633663508324</v>
+        <v>1.01785519888413</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.7088885641266924</v>
+        <v>0.725594723202131</v>
       </c>
       <c r="C5">
-        <v>0.5705919485473872</v>
+        <v>0.6126800897259095</v>
       </c>
       <c r="D5">
-        <v>0.5396840937271498</v>
+        <v>0.4300256874829062</v>
       </c>
       <c r="E5">
-        <v>0.7613101988632131</v>
+        <v>0.5926527215980217</v>
       </c>
       <c r="F5">
-        <v>0.2393019523818062</v>
+        <v>0.219968296502469</v>
       </c>
       <c r="G5">
-        <v>5.158762187010509</v>
+        <v>4.608330475160963</v>
       </c>
       <c r="H5">
-        <v>0.3893643801614911</v>
+        <v>0.4223822974546327</v>
       </c>
       <c r="I5">
-        <v>0.9660351726663448</v>
+        <v>1.018177994187005</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7162379957586388</v>
+        <v>0.7588713370947083</v>
       </c>
       <c r="C6">
-        <v>0.5880469610804414</v>
+        <v>0.5932957351525514</v>
       </c>
       <c r="D6">
-        <v>0.4425068270518308</v>
+        <v>0.5417456136436976</v>
       </c>
       <c r="E6">
-        <v>0.6178209333660495</v>
+        <v>0.7138833517124746</v>
       </c>
       <c r="F6">
-        <v>0.2168609859330944</v>
+        <v>0.2147454009402101</v>
       </c>
       <c r="G6">
-        <v>3.577919050030079</v>
+        <v>6.452760357970213</v>
       </c>
       <c r="H6">
-        <v>0.397315067543364</v>
+        <v>0.4019551123888502</v>
       </c>
       <c r="I6">
-        <v>0.9591413015286467</v>
+        <v>0.993401228955437</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.901649210121425</v>
+        <v>0.767009095795083</v>
       </c>
       <c r="C7">
-        <v>0.6366338239857381</v>
+        <v>0.5945351583074598</v>
       </c>
       <c r="D7">
-        <v>0.8066407151101038</v>
+        <v>0.5519841369641314</v>
       </c>
       <c r="E7">
-        <v>0.894628094890111</v>
+        <v>0.7196578762758264</v>
       </c>
       <c r="F7">
-        <v>0.21527400009424</v>
+        <v>0.2151422336515786</v>
       </c>
       <c r="G7">
-        <v>6.335187371630906</v>
+        <v>6.515646929945833</v>
       </c>
       <c r="H7">
-        <v>0.4207010348821772</v>
+        <v>0.4062718018798236</v>
       </c>
       <c r="I7">
-        <v>1.038354606661216</v>
+        <v>0.9946706088958266</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.9166687430696712</v>
+        <v>0.8417150343062385</v>
       </c>
       <c r="C8">
-        <v>0.7007098464015016</v>
+        <v>0.6411581311351673</v>
       </c>
       <c r="D8">
-        <v>0.7394172908731328</v>
+        <v>0.6297268363901648</v>
       </c>
       <c r="E8">
-        <v>0.806635217425466</v>
+        <v>0.7481473072525081</v>
       </c>
       <c r="F8">
-        <v>0.2307687241430901</v>
+        <v>0.22006183872586</v>
       </c>
       <c r="G8">
-        <v>5.221271407783944</v>
+        <v>6.344337351931949</v>
       </c>
       <c r="H8">
-        <v>0.4323054578955148</v>
+        <v>0.4244460607306192</v>
       </c>
       <c r="I8">
-        <v>1.10634868959039</v>
+        <v>1.061120042888549</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.9314596835305174</v>
+        <v>0.9049089908192756</v>
       </c>
       <c r="C9">
-        <v>0.6682808223330334</v>
+        <v>0.6406781392973033</v>
       </c>
       <c r="D9">
-        <v>0.8129065886411864</v>
+        <v>0.7979060141489696</v>
       </c>
       <c r="E9">
-        <v>0.8727233212714279</v>
+        <v>0.8817527754106753</v>
       </c>
       <c r="F9">
-        <v>0.243198585581633</v>
+        <v>0.2195871841254272</v>
       </c>
       <c r="G9">
-        <v>6.523710212990301</v>
+        <v>6.993944357775106</v>
       </c>
       <c r="H9">
-        <v>0.4429727213256253</v>
+        <v>0.4174681456307766</v>
       </c>
       <c r="I9">
-        <v>1.102762941464119</v>
+        <v>1.0841386983855</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.107034227071176</v>
+        <v>0.9382087515359209</v>
       </c>
       <c r="C10">
-        <v>0.9195770688166229</v>
+        <v>0.6609822503563585</v>
       </c>
       <c r="D10">
-        <v>0.6942631590241671</v>
+        <v>0.8337830090724148</v>
       </c>
       <c r="E10">
-        <v>0.627137934895603</v>
+        <v>0.8886966868593444</v>
       </c>
       <c r="F10">
-        <v>0.3071467384467538</v>
+        <v>0.2208403807699112</v>
       </c>
       <c r="G10">
-        <v>3.387755827106024</v>
+        <v>7.26842830881974</v>
       </c>
       <c r="H10">
-        <v>0.5697171196721268</v>
+        <v>0.426881204454917</v>
       </c>
       <c r="I10">
-        <v>1.432149390655362</v>
+        <v>1.12345539779781</v>
       </c>
     </row>
   </sheetData>
